--- a/Table_Source/Student_Placement_Table.xlsx
+++ b/Table_Source/Student_Placement_Table.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R101100\Desktop\Git_Practice\0.SQL_for_DataScience\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R101100\Desktop\Git_Practice\0.SQL_for_DataScience\Table_Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8340"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -165,13 +165,88 @@
   </si>
   <si>
     <t>XXX</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>AAA@gmail.com</t>
+  </si>
+  <si>
+    <t>CCC@gmail.com</t>
+  </si>
+  <si>
+    <t>EEE@gmail.com</t>
+  </si>
+  <si>
+    <t>FFF@gmail.com</t>
+  </si>
+  <si>
+    <t>HHH@gmail.com</t>
+  </si>
+  <si>
+    <t>III@gmail.com</t>
+  </si>
+  <si>
+    <t>KKK@gmail.com</t>
+  </si>
+  <si>
+    <t>LLL@gmail.com</t>
+  </si>
+  <si>
+    <t>NNN@gmail.com</t>
+  </si>
+  <si>
+    <t>OOO@gmail.com</t>
+  </si>
+  <si>
+    <t>PPP@gmail.com</t>
+  </si>
+  <si>
+    <t>RRR@gmail.com</t>
+  </si>
+  <si>
+    <t>SSS@gmail.com</t>
+  </si>
+  <si>
+    <t>UUU@gmail.com</t>
+  </si>
+  <si>
+    <t>VVV@gmail.com</t>
+  </si>
+  <si>
+    <t>XXX@gmail.com</t>
+  </si>
+  <si>
+    <t>BBB@hotmail.com</t>
+  </si>
+  <si>
+    <t>DDD@hotmail.com</t>
+  </si>
+  <si>
+    <t>GGG@hotmail.com</t>
+  </si>
+  <si>
+    <t>MMM@hotmail.com</t>
+  </si>
+  <si>
+    <t>QQQ@hotmail.com</t>
+  </si>
+  <si>
+    <t>TTT@hotmail.com</t>
+  </si>
+  <si>
+    <t>JJJ@hotmail.com</t>
+  </si>
+  <si>
+    <t>WWW@hotmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +258,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,15 +288,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -492,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,9 +590,10 @@
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -531,8 +618,11 @@
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
@@ -557,8 +647,11 @@
       <c r="H2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
@@ -583,8 +676,11 @@
       <c r="H3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
@@ -609,8 +705,11 @@
       <c r="H4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -635,8 +734,11 @@
       <c r="H5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>105</v>
       </c>
@@ -661,8 +763,11 @@
       <c r="H6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>106</v>
       </c>
@@ -687,8 +792,11 @@
       <c r="H7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>107</v>
       </c>
@@ -713,8 +821,11 @@
       <c r="H8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>108</v>
       </c>
@@ -739,8 +850,11 @@
       <c r="H9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>109</v>
       </c>
@@ -765,8 +879,11 @@
       <c r="H10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>110</v>
       </c>
@@ -791,8 +908,11 @@
       <c r="H11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>111</v>
       </c>
@@ -817,8 +937,11 @@
       <c r="H12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>112</v>
       </c>
@@ -843,8 +966,11 @@
       <c r="H13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>113</v>
       </c>
@@ -857,9 +983,6 @@
       <c r="D14" s="1">
         <v>34622</v>
       </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
       <c r="F14" t="s">
         <v>41</v>
       </c>
@@ -869,8 +992,11 @@
       <c r="H14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>114</v>
       </c>
@@ -895,8 +1021,11 @@
       <c r="H15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>115</v>
       </c>
@@ -921,8 +1050,11 @@
       <c r="H16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>116</v>
       </c>
@@ -947,8 +1079,11 @@
       <c r="H17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>117</v>
       </c>
@@ -973,8 +1108,11 @@
       <c r="H18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>118</v>
       </c>
@@ -999,8 +1137,11 @@
       <c r="H19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>119</v>
       </c>
@@ -1013,9 +1154,6 @@
       <c r="D20" s="1">
         <v>33902</v>
       </c>
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
       <c r="F20" t="s">
         <v>41</v>
       </c>
@@ -1025,8 +1163,11 @@
       <c r="H20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>120</v>
       </c>
@@ -1051,8 +1192,11 @@
       <c r="H21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>121</v>
       </c>
@@ -1077,8 +1221,11 @@
       <c r="H22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>122</v>
       </c>
@@ -1103,8 +1250,11 @@
       <c r="H23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>123</v>
       </c>
@@ -1129,8 +1279,11 @@
       <c r="H24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>124</v>
       </c>
@@ -1155,9 +1308,22 @@
       <c r="H25" t="s">
         <v>33</v>
       </c>
+      <c r="I25" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="I5" r:id="rId2"/>
+    <hyperlink ref="I8" r:id="rId3"/>
+    <hyperlink ref="I14" r:id="rId4"/>
+    <hyperlink ref="I18" r:id="rId5"/>
+    <hyperlink ref="I21" r:id="rId6"/>
+    <hyperlink ref="I11" r:id="rId7"/>
+    <hyperlink ref="I24" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>